--- a/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>106.96126859342543</v>
+        <v>106.96126858777737</v>
       </c>
       <c r="C2">
-        <v>124.63247211450056</v>
+        <v>124.63247214930783</v>
       </c>
       <c r="D2">
-        <v>83.826848008204507</v>
+        <v>83.82684801157535</v>
       </c>
       <c r="E2">
-        <v>164.27867108141155</v>
+        <v>164.27867110103963</v>
       </c>
       <c r="F2">
-        <v>104.10900434257752</v>
+        <v>104.10900435336836</v>
       </c>
       <c r="G2">
-        <v>143.39433471240585</v>
+        <v>143.39433476743596</v>
       </c>
       <c r="H2">
-        <v>97.941484056349012</v>
+        <v>97.941484070400605</v>
       </c>
       <c r="I2">
-        <v>129.50558913972006</v>
+        <v>129.50558915640798</v>
       </c>
       <c r="J2">
-        <v>86.143736396277632</v>
+        <v>86.143736446683846</v>
       </c>
       <c r="K2">
-        <v>95.538164518148577</v>
+        <v>95.538164515467926</v>
       </c>
       <c r="L2">
-        <v>78.213278338451317</v>
+        <v>78.213278329568126</v>
       </c>
       <c r="M2">
-        <v>129.37126414684991</v>
+        <v>129.37126416012967</v>
       </c>
       <c r="N2">
-        <v>169.65287761450608</v>
+        <v>169.65287762898004</v>
       </c>
       <c r="O2">
-        <v>137.51708749695365</v>
+        <v>137.51708750675024</v>
       </c>
       <c r="P2">
-        <v>167.47167557673015</v>
+        <v>167.47167563594192</v>
       </c>
       <c r="Q2">
-        <v>155.34479532500498</v>
+        <v>155.34479536671748</v>
       </c>
       <c r="R2">
-        <v>178.30119081499117</v>
+        <v>178.301190856668</v>
       </c>
       <c r="S2">
-        <v>133.4110565571728</v>
+        <v>133.41105657378949</v>
       </c>
       <c r="T2">
-        <v>137.81777878751194</v>
+        <v>137.81777881022296</v>
       </c>
       <c r="U2">
-        <v>112.41072670383313</v>
+        <v>112.41072669836336</v>
       </c>
       <c r="V2">
-        <v>137.78764050950326</v>
+        <v>137.78764051775386</v>
       </c>
       <c r="W2">
-        <v>191.90138917208628</v>
+        <v>191.90138922275599</v>
       </c>
       <c r="X2">
-        <v>129.16159417212447</v>
+        <v>129.16159422091084</v>
       </c>
       <c r="Y2">
-        <v>141.55773800376625</v>
+        <v>141.55773799149677</v>
       </c>
       <c r="Z2">
-        <v>90.484284345810565</v>
+        <v>90.484284344147909</v>
       </c>
       <c r="AA2">
-        <v>120.62884654571478</v>
+        <v>120.62884657349122</v>
       </c>
       <c r="AB2">
-        <v>118.04091145209338</v>
+        <v>118.0409114909756</v>
       </c>
       <c r="AC2">
-        <v>91.564008658034084</v>
+        <v>91.564008685164694</v>
       </c>
       <c r="AD2">
-        <v>138.73847178104498</v>
+        <v>138.73847177720282</v>
       </c>
       <c r="AE2">
-        <v>108.30159178044727</v>
+        <v>108.30159180194556</v>
       </c>
       <c r="AF2">
-        <v>132.5969058838958</v>
+        <v>132.59690590896901</v>
       </c>
       <c r="AG2">
-        <v>97.9443355847757</v>
+        <v>97.944335583266422</v>
       </c>
       <c r="AH2">
-        <v>122.89706567655649</v>
+        <v>122.89706569151581</v>
       </c>
       <c r="AI2">
-        <v>105.96591667181235</v>
+        <v>105.96591667750964</v>
       </c>
       <c r="AJ2">
-        <v>98.515448729479814</v>
+        <v>98.515448739726494</v>
       </c>
       <c r="AK2">
-        <v>70.937818542389437</v>
+        <v>70.937818533934376</v>
       </c>
       <c r="AL2">
-        <v>120.36591313244415</v>
+        <v>120.36591312660025</v>
       </c>
       <c r="AM2">
-        <v>170.86990574538385</v>
+        <v>170.86990574074147</v>
       </c>
       <c r="AN2">
-        <v>135.29728541845807</v>
+        <v>135.29728541516977</v>
       </c>
       <c r="AO2">
-        <v>164.64466085121953</v>
+        <v>164.6446608733244</v>
       </c>
       <c r="AP2">
-        <v>168.15102895849856</v>
+        <v>168.15102898460367</v>
       </c>
       <c r="AQ2">
-        <v>178.80066323998082</v>
+        <v>178.80066326742468</v>
       </c>
       <c r="AR2">
-        <v>130.19167356412746</v>
+        <v>130.19167356490021</v>
       </c>
       <c r="AS2">
-        <v>138.92425930585449</v>
+        <v>138.92425932995022</v>
       </c>
       <c r="AT2">
-        <v>112.74597926284858</v>
+        <v>112.74597928658176</v>
       </c>
       <c r="AU2">
-        <v>144.57461280314078</v>
+        <v>144.57461281770108</v>
       </c>
       <c r="AV2">
-        <v>176.99632155562836</v>
+        <v>176.99632161960585</v>
       </c>
       <c r="AW2">
-        <v>123.79686665656381</v>
+        <v>123.79686670324297</v>
       </c>
       <c r="AX2">
-        <v>150.43860298632865</v>
+        <v>150.4386029949944</v>
       </c>
       <c r="AY2">
-        <v>119.61794433146505</v>
+        <v>119.61794433926896</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.66635757395173</v>
+        <v>123.6663575835002</v>
       </c>
       <c r="C3">
-        <v>104.93384479915855</v>
+        <v>104.9338447828695</v>
       </c>
       <c r="D3">
-        <v>85.719508035283468</v>
+        <v>85.719508073886203</v>
       </c>
       <c r="E3">
-        <v>153.9837091716459</v>
+        <v>153.98370916825002</v>
       </c>
       <c r="F3">
-        <v>127.5697394940656</v>
+        <v>127.56973950331894</v>
       </c>
       <c r="G3">
-        <v>134.69500756015006</v>
+        <v>134.69500755377121</v>
       </c>
       <c r="H3">
-        <v>94.047804091876614</v>
+        <v>94.047804131119165</v>
       </c>
       <c r="I3">
-        <v>134.77703703088667</v>
+        <v>134.77703699991673</v>
       </c>
       <c r="J3">
-        <v>85.269888133179848</v>
+        <v>85.26988813894458</v>
       </c>
       <c r="K3">
-        <v>113.05409642901213</v>
+        <v>113.05409643144174</v>
       </c>
       <c r="L3">
-        <v>109.30585978138771</v>
+        <v>109.30585977943151</v>
       </c>
       <c r="M3">
-        <v>137.47270005096385</v>
+        <v>137.47240820095362</v>
       </c>
       <c r="N3">
-        <v>153.98837884527043</v>
+        <v>153.98837884296645</v>
       </c>
       <c r="O3">
-        <v>128.60867507834126</v>
+        <v>128.60867508149147</v>
       </c>
       <c r="P3">
-        <v>146.75987127039303</v>
+        <v>146.75987128898547</v>
       </c>
       <c r="Q3">
-        <v>147.5161006158792</v>
+        <v>147.51610063984205</v>
       </c>
       <c r="R3">
-        <v>177.76980922161778</v>
+        <v>177.76980926461107</v>
       </c>
       <c r="S3">
-        <v>131.56152982777343</v>
+        <v>131.56152983095953</v>
       </c>
       <c r="T3">
-        <v>144.25232257334665</v>
+        <v>144.25232256981113</v>
       </c>
       <c r="U3">
-        <v>95.308519957003341</v>
+        <v>95.308519956977662</v>
       </c>
       <c r="V3">
-        <v>163.88040944501148</v>
+        <v>163.88040945048968</v>
       </c>
       <c r="W3">
-        <v>124.15138554442434</v>
+        <v>124.15138551001121</v>
       </c>
       <c r="X3">
-        <v>138.15571740888703</v>
+        <v>138.15571737665601</v>
       </c>
       <c r="Y3">
-        <v>136.77476012903816</v>
+        <v>136.77476015969191</v>
       </c>
       <c r="Z3">
-        <v>126.34847223647961</v>
+        <v>126.34847224762498</v>
       </c>
       <c r="AA3">
-        <v>118.61403861593666</v>
+        <v>118.61403868291399</v>
       </c>
       <c r="AB3">
-        <v>102.89379725906687</v>
+        <v>102.89379728359401</v>
       </c>
       <c r="AC3">
-        <v>85.341412300789983</v>
+        <v>85.34141231534602</v>
       </c>
       <c r="AD3">
-        <v>150.21778679214549</v>
+        <v>150.21778682479447</v>
       </c>
       <c r="AE3">
-        <v>132.97826665019659</v>
+        <v>132.97826667814314</v>
       </c>
       <c r="AF3">
-        <v>129.07300160950012</v>
+        <v>129.07300160285197</v>
       </c>
       <c r="AG3">
-        <v>93.005150013764691</v>
+        <v>93.005150031506631</v>
       </c>
       <c r="AH3">
-        <v>140.12902229650331</v>
+        <v>140.12902232710394</v>
       </c>
       <c r="AI3">
-        <v>78.081328163617229</v>
+        <v>78.081328159304576</v>
       </c>
       <c r="AJ3">
-        <v>107.70259090844625</v>
+        <v>107.70259090118196</v>
       </c>
       <c r="AK3">
-        <v>82.584553781360768</v>
+        <v>82.58455376957798</v>
       </c>
       <c r="AL3">
-        <v>138.57453420282474</v>
+        <v>138.57453423091778</v>
       </c>
       <c r="AM3">
-        <v>158.61882369918382</v>
+        <v>158.61882371519948</v>
       </c>
       <c r="AN3">
-        <v>132.45973954714117</v>
+        <v>132.45973953741387</v>
       </c>
       <c r="AO3">
-        <v>194.42014272862667</v>
+        <v>194.4201427485483</v>
       </c>
       <c r="AP3">
-        <v>145.95061356454144</v>
+        <v>145.95061357492455</v>
       </c>
       <c r="AQ3">
-        <v>174.67068844115579</v>
+        <v>174.67068848106859</v>
       </c>
       <c r="AR3">
-        <v>124.418018837391</v>
+        <v>124.41801882349134</v>
       </c>
       <c r="AS3">
-        <v>138.93991227753443</v>
+        <v>138.93991229189311</v>
       </c>
       <c r="AT3">
-        <v>96.734327386212627</v>
+        <v>96.734327399121227</v>
       </c>
       <c r="AU3">
-        <v>163.38238095126627</v>
+        <v>163.38238095097122</v>
       </c>
       <c r="AV3">
-        <v>125.08511750251409</v>
+        <v>125.08511752139746</v>
       </c>
       <c r="AW3">
-        <v>130.0433654956289</v>
+        <v>130.04336550971809</v>
       </c>
       <c r="AX3">
-        <v>112.06696142605858</v>
+        <v>112.06696144682911</v>
       </c>
       <c r="AY3">
-        <v>131.3768322060892</v>
+        <v>131.37683221499506</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>106.96126858777737</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>124.63247214930783</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>83.82684801157535</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>164.27867110103963</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>104.10900435336836</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>143.39433476743596</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>97.941484070400605</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>129.50558915640798</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>86.143736446683846</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>95.538164515467926</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>78.213278329568126</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>129.37126416012967</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>169.65287762898004</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>137.51708750675024</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>167.47167563594192</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>155.34479536671748</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>178.301190856668</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>133.41105657378949</v>
@@ -588,55 +477,55 @@
         <v>90.484284344147909</v>
       </c>
       <c r="AA2">
-        <v>120.62884657349122</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>118.0409114909756</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>91.564008685164694</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>138.73847177720282</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>108.30159180194556</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>132.59690590896901</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>97.944335583266422</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>122.89706569151581</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>105.96591667750964</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>98.515448739726494</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>70.937818533934376</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>120.36591312660025</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>170.86990574074147</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>135.29728541516977</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>164.6446608733244</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>168.15102898460367</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>178.80066326742468</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>130.19167356490021</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>123.6663575835002</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>104.9338447828695</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>85.719508073886203</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>153.98370916825002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>127.56973950331894</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>134.69500755377121</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>94.047804131119165</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>134.77703699991673</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.26988813894458</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>113.05409643144174</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>109.30585977943151</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>137.47240820095362</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>153.98837884296645</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>128.60867508149147</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>146.75987128898547</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>147.51610063984205</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>177.76980926461107</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>131.56152983095953</v>
@@ -743,55 +629,55 @@
         <v>126.34847224762498</v>
       </c>
       <c r="AA3">
-        <v>118.61403868291399</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>102.89379728359401</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>85.34141231534602</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>150.21778682479447</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>132.97826667814314</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>129.07300160285197</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>93.005150031506631</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>140.12902232710394</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>78.081328159304576</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>107.70259090118196</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>82.58455376957798</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>138.57453423091778</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>158.61882371519948</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>132.45973953741387</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>194.4201427485483</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>145.95061357492455</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>174.67068848106859</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>124.41801882349134</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>106.96126859342543</v>
+        <v>137.51708750675024</v>
       </c>
       <c r="C2">
-        <v>124.63247211450056</v>
+        <v>178.301190856668</v>
       </c>
       <c r="D2">
-        <v>83.826848008204507</v>
+        <v>135.29728541516977</v>
       </c>
       <c r="E2">
-        <v>164.27867108141155</v>
+        <v>178.80066326742468</v>
       </c>
       <c r="F2">
         <v>104.10900434257752</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.66635757395173</v>
+        <v>128.60867508149147</v>
       </c>
       <c r="C3">
-        <v>104.93384479915855</v>
+        <v>177.76980926461107</v>
       </c>
       <c r="D3">
-        <v>85.719508035283468</v>
+        <v>132.45973953741387</v>
       </c>
       <c r="E3">
-        <v>153.9837091716459</v>
+        <v>174.70118821497618</v>
       </c>
       <c r="F3">
         <v>127.5697394940656</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>106.96126859342543</v>
+        <v>169.76763831018951</v>
       </c>
       <c r="C2">
-        <v>124.63247211450056</v>
+        <v>136.6188627315039</v>
       </c>
       <c r="D2">
-        <v>83.826848008204507</v>
+        <v>171.01743350577439</v>
       </c>
       <c r="E2">
-        <v>164.27867108141155</v>
+        <v>134.77546343603575</v>
       </c>
       <c r="F2">
         <v>104.10900434257752</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.66635757395173</v>
+        <v>153.98837884296645</v>
       </c>
       <c r="C3">
-        <v>104.93384479915855</v>
+        <v>128.60867508149147</v>
       </c>
       <c r="D3">
-        <v>85.719508035283468</v>
+        <v>158.61882371519948</v>
       </c>
       <c r="E3">
-        <v>153.9837091716459</v>
+        <v>132.45973953741387</v>
       </c>
       <c r="F3">
         <v>127.5697394940656</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>106.85191088303438</v>
+      </c>
+      <c r="C2">
+        <v>124.63247214930783</v>
+      </c>
+      <c r="D2">
+        <v>81.406849234946137</v>
+      </c>
+      <c r="E2">
+        <v>164.59729167581364</v>
+      </c>
+      <c r="F2">
+        <v>104.10900435336836</v>
+      </c>
+      <c r="G2">
+        <v>143.39433476743596</v>
+      </c>
+      <c r="H2">
+        <v>98.227631978827816</v>
+      </c>
+      <c r="I2">
+        <v>129.28755307012273</v>
+      </c>
+      <c r="J2">
+        <v>85.972253821306566</v>
+      </c>
+      <c r="K2">
+        <v>94.560789486527355</v>
+      </c>
+      <c r="L2">
+        <v>78.406338009904246</v>
+      </c>
+      <c r="M2">
+        <v>129.37126416012967</v>
+      </c>
+      <c r="N2">
         <v>169.76763831018951</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>136.6188627315039</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>167.47167563594192</v>
+      </c>
+      <c r="Q2">
+        <v>155.34479536671748</v>
+      </c>
+      <c r="R2">
+        <v>178.301190856668</v>
+      </c>
+      <c r="S2">
+        <v>133.89912080675782</v>
+      </c>
+      <c r="T2">
+        <v>137.81777881022296</v>
+      </c>
+      <c r="U2">
+        <v>112.50279895317894</v>
+      </c>
+      <c r="V2">
+        <v>137.05123174719159</v>
+      </c>
+      <c r="W2">
+        <v>188.32465680847108</v>
+      </c>
+      <c r="X2">
+        <v>128.56508424611101</v>
+      </c>
+      <c r="Y2">
+        <v>141.55589455245735</v>
+      </c>
+      <c r="Z2">
+        <v>90.484284344147909</v>
+      </c>
+      <c r="AA2">
+        <v>120.40741822123698</v>
+      </c>
+      <c r="AB2">
+        <v>118.0409114909756</v>
+      </c>
+      <c r="AC2">
+        <v>90.413284924538516</v>
+      </c>
+      <c r="AD2">
+        <v>138.58788384228504</v>
+      </c>
+      <c r="AE2">
+        <v>108.30159180194556</v>
+      </c>
+      <c r="AF2">
+        <v>132.59690590896901</v>
+      </c>
+      <c r="AG2">
+        <v>97.966045018219489</v>
+      </c>
+      <c r="AH2">
+        <v>121.20601899332303</v>
+      </c>
+      <c r="AI2">
+        <v>105.91885657758743</v>
+      </c>
+      <c r="AJ2">
+        <v>97.702051485091374</v>
+      </c>
+      <c r="AK2">
+        <v>69.909007213682372</v>
+      </c>
+      <c r="AL2">
+        <v>120.36591312660025</v>
+      </c>
+      <c r="AM2">
         <v>171.01743350577439</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>134.77546343603575</v>
       </c>
-      <c r="F2">
-        <v>104.10900434257752</v>
-      </c>
-      <c r="G2">
-        <v>143.39433471240585</v>
-      </c>
-      <c r="H2">
-        <v>97.941484056349012</v>
-      </c>
-      <c r="I2">
-        <v>129.50558913972006</v>
-      </c>
-      <c r="J2">
-        <v>86.143736396277632</v>
-      </c>
-      <c r="K2">
-        <v>95.538164518148577</v>
-      </c>
-      <c r="L2">
-        <v>78.213278338451317</v>
-      </c>
-      <c r="M2">
-        <v>129.37126414684991</v>
-      </c>
-      <c r="N2">
-        <v>169.65287761450608</v>
-      </c>
-      <c r="O2">
-        <v>137.51708749695365</v>
-      </c>
-      <c r="P2">
-        <v>167.47167557673015</v>
-      </c>
-      <c r="Q2">
-        <v>155.34479532500498</v>
-      </c>
-      <c r="R2">
-        <v>178.30119081499117</v>
-      </c>
-      <c r="S2">
-        <v>133.4110565571728</v>
-      </c>
-      <c r="T2">
-        <v>137.81777878751194</v>
-      </c>
-      <c r="U2">
-        <v>112.41072670383313</v>
-      </c>
-      <c r="V2">
-        <v>137.78764050950326</v>
-      </c>
-      <c r="W2">
-        <v>191.87856562011049</v>
-      </c>
-      <c r="X2">
-        <v>129.16159417212447</v>
-      </c>
-      <c r="Y2">
-        <v>141.55773800376625</v>
-      </c>
-      <c r="Z2">
-        <v>90.484284345810565</v>
-      </c>
-      <c r="AA2">
-        <v>120.62884654571478</v>
-      </c>
-      <c r="AB2">
-        <v>118.04091145209338</v>
-      </c>
-      <c r="AC2">
-        <v>91.564008658034084</v>
-      </c>
-      <c r="AD2">
-        <v>138.73847178104498</v>
-      </c>
-      <c r="AE2">
-        <v>108.30159178044727</v>
-      </c>
-      <c r="AF2">
-        <v>132.5969058838958</v>
-      </c>
-      <c r="AG2">
-        <v>97.9443355847757</v>
-      </c>
-      <c r="AH2">
-        <v>122.89706567655649</v>
-      </c>
-      <c r="AI2">
-        <v>105.96591667181235</v>
-      </c>
-      <c r="AJ2">
-        <v>98.515448729479814</v>
-      </c>
-      <c r="AK2">
-        <v>70.937818542389437</v>
-      </c>
-      <c r="AL2">
-        <v>120.36591313244415</v>
-      </c>
-      <c r="AM2">
-        <v>170.86990574538385</v>
-      </c>
-      <c r="AN2">
-        <v>135.29728541845807</v>
-      </c>
       <c r="AO2">
-        <v>164.64466085121953</v>
+        <v>164.6446608733244</v>
       </c>
       <c r="AP2">
-        <v>167.72667918408825</v>
+        <v>167.72667922970535</v>
       </c>
       <c r="AQ2">
-        <v>178.80066323998082</v>
+        <v>178.80066326742468</v>
       </c>
       <c r="AR2">
-        <v>130.19167356412746</v>
+        <v>129.7961738905359</v>
       </c>
       <c r="AS2">
-        <v>138.92425930585449</v>
+        <v>138.92425932995022</v>
       </c>
       <c r="AT2">
-        <v>112.74597926284858</v>
+        <v>112.0418095101581</v>
       </c>
       <c r="AU2">
-        <v>144.57461280314078</v>
+        <v>142.03050902162244</v>
       </c>
       <c r="AV2">
-        <v>176.96845601817628</v>
+        <v>173.87431712923129</v>
       </c>
       <c r="AW2">
-        <v>123.79686665656381</v>
+        <v>122.41939672214798</v>
       </c>
       <c r="AX2">
-        <v>150.43860298632865</v>
+        <v>150.40067390410343</v>
       </c>
       <c r="AY2">
-        <v>119.61794433146505</v>
+        <v>119.61794433926896</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>123.6663575835002</v>
+      </c>
+      <c r="C3">
+        <v>105.39238210411989</v>
+      </c>
+      <c r="D3">
+        <v>85.719508073886203</v>
+      </c>
+      <c r="E3">
+        <v>153.98370916825002</v>
+      </c>
+      <c r="F3">
+        <v>127.51611421291913</v>
+      </c>
+      <c r="G3">
+        <v>134.98899098088384</v>
+      </c>
+      <c r="H3">
+        <v>94.047804131119165</v>
+      </c>
+      <c r="I3">
+        <v>134.77703699991673</v>
+      </c>
+      <c r="J3">
+        <v>85.26988813894458</v>
+      </c>
+      <c r="K3">
+        <v>113.05409643144174</v>
+      </c>
+      <c r="L3">
+        <v>109.30585977943151</v>
+      </c>
+      <c r="M3">
+        <v>135.87464684478499</v>
+      </c>
+      <c r="N3">
         <v>153.98837884296645</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>128.60867508149147</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>146.36515343822302</v>
+      </c>
+      <c r="Q3">
+        <v>147.38314630074464</v>
+      </c>
+      <c r="R3">
+        <v>175.36210976988343</v>
+      </c>
+      <c r="S3">
+        <v>131.56152983095953</v>
+      </c>
+      <c r="T3">
+        <v>144.26693025059399</v>
+      </c>
+      <c r="U3">
+        <v>95.308519956977662</v>
+      </c>
+      <c r="V3">
+        <v>163.88040945048968</v>
+      </c>
+      <c r="W3">
+        <v>124.32733466302511</v>
+      </c>
+      <c r="X3">
+        <v>138.15571737665601</v>
+      </c>
+      <c r="Y3">
+        <v>136.77476015969191</v>
+      </c>
+      <c r="Z3">
+        <v>126.23198950011002</v>
+      </c>
+      <c r="AA3">
+        <v>118.61403868291399</v>
+      </c>
+      <c r="AB3">
+        <v>101.41937380513212</v>
+      </c>
+      <c r="AC3">
+        <v>85.34141231534602</v>
+      </c>
+      <c r="AD3">
+        <v>150.21778682479447</v>
+      </c>
+      <c r="AE3">
+        <v>132.20038148351537</v>
+      </c>
+      <c r="AF3">
+        <v>128.50038535884556</v>
+      </c>
+      <c r="AG3">
+        <v>93.005150031506631</v>
+      </c>
+      <c r="AH3">
+        <v>140.36591779846555</v>
+      </c>
+      <c r="AI3">
+        <v>78.081328159304576</v>
+      </c>
+      <c r="AJ3">
+        <v>107.70259090118196</v>
+      </c>
+      <c r="AK3">
+        <v>82.58455376957798</v>
+      </c>
+      <c r="AL3">
+        <v>137.04799442850842</v>
+      </c>
+      <c r="AM3">
         <v>158.61882371519948</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>132.45973953741387</v>
       </c>
-      <c r="F3">
-        <v>127.5697394940656</v>
-      </c>
-      <c r="G3">
-        <v>134.69500756015006</v>
-      </c>
-      <c r="H3">
-        <v>94.047804091876614</v>
-      </c>
-      <c r="I3">
-        <v>134.77703703088667</v>
-      </c>
-      <c r="J3">
-        <v>85.269888133179848</v>
-      </c>
-      <c r="K3">
-        <v>113.05409642901213</v>
-      </c>
-      <c r="L3">
-        <v>109.30585978138771</v>
-      </c>
-      <c r="M3">
-        <v>137.47270005096385</v>
-      </c>
-      <c r="N3">
-        <v>153.98837884527043</v>
-      </c>
-      <c r="O3">
-        <v>128.60867507834126</v>
-      </c>
-      <c r="P3">
-        <v>146.75987127039303</v>
-      </c>
-      <c r="Q3">
-        <v>147.5161006158792</v>
-      </c>
-      <c r="R3">
-        <v>177.76980922161778</v>
-      </c>
-      <c r="S3">
-        <v>131.56152982777343</v>
-      </c>
-      <c r="T3">
-        <v>144.25232257334665</v>
-      </c>
-      <c r="U3">
-        <v>95.308519957003341</v>
-      </c>
-      <c r="V3">
-        <v>163.88040944501148</v>
-      </c>
-      <c r="W3">
-        <v>124.32733450702402</v>
-      </c>
-      <c r="X3">
-        <v>138.15571740888703</v>
-      </c>
-      <c r="Y3">
-        <v>136.77476012903816</v>
-      </c>
-      <c r="Z3">
-        <v>126.34847223647961</v>
-      </c>
-      <c r="AA3">
-        <v>118.61403861593666</v>
-      </c>
-      <c r="AB3">
-        <v>102.89379725906687</v>
-      </c>
-      <c r="AC3">
-        <v>85.341412300789983</v>
-      </c>
-      <c r="AD3">
-        <v>150.21778679214549</v>
-      </c>
-      <c r="AE3">
-        <v>132.97826665019659</v>
-      </c>
-      <c r="AF3">
-        <v>129.07300160950012</v>
-      </c>
-      <c r="AG3">
-        <v>93.005150013764691</v>
-      </c>
-      <c r="AH3">
-        <v>140.36591775513091</v>
-      </c>
-      <c r="AI3">
-        <v>78.081328163617229</v>
-      </c>
-      <c r="AJ3">
-        <v>107.70259090844625</v>
-      </c>
-      <c r="AK3">
-        <v>82.584553781360768</v>
-      </c>
-      <c r="AL3">
-        <v>138.57453420282474</v>
-      </c>
-      <c r="AM3">
-        <v>158.61882369918382</v>
-      </c>
-      <c r="AN3">
-        <v>132.45973954714117</v>
-      </c>
       <c r="AO3">
-        <v>194.42014272862667</v>
+        <v>193.79143938892153</v>
       </c>
       <c r="AP3">
-        <v>145.95061356454144</v>
+        <v>145.7866277255028</v>
       </c>
       <c r="AQ3">
-        <v>174.70118816642591</v>
+        <v>171.74290764334873</v>
       </c>
       <c r="AR3">
-        <v>124.418018837391</v>
+        <v>124.41801882349134</v>
       </c>
       <c r="AS3">
-        <v>138.93991227753443</v>
+        <v>138.38266631757693</v>
       </c>
       <c r="AT3">
-        <v>96.734327386212627</v>
+        <v>96.734327399121227</v>
       </c>
       <c r="AU3">
-        <v>163.38238095126627</v>
+        <v>163.38238095097122</v>
       </c>
       <c r="AV3">
-        <v>125.07703437299094</v>
+        <v>125.07703438941493</v>
       </c>
       <c r="AW3">
-        <v>130.0433654956289</v>
+        <v>130.04336550971809</v>
       </c>
       <c r="AX3">
-        <v>112.06696142605858</v>
+        <v>112.06696144682911</v>
       </c>
       <c r="AY3">
-        <v>131.3768322060892</v>
+        <v>131.36561186283615</v>
       </c>
     </row>
   </sheetData>
